--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1150.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1150.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.962878681448585</v>
+        <v>1.161185741424561</v>
       </c>
       <c r="B1">
-        <v>2.332633010405893</v>
+        <v>2.413383960723877</v>
       </c>
       <c r="C1">
-        <v>2.462615948896839</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>3.311393826924398</v>
+        <v>2.380521297454834</v>
       </c>
       <c r="E1">
-        <v>1.540169651627773</v>
+        <v>1.230362176895142</v>
       </c>
     </row>
   </sheetData>
